--- a/Tool/ExcelTool/ExcelConfig/Level.xlsx
+++ b/Tool/ExcelTool/ExcelConfig/Level.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameProject\Client\All-Doe-s-Life-Res\All-Doe-s-Life-Tool\ExcelTool\ExcelConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameProject\RPGFramework\Tool\ExcelTool\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A83C4C-478D-4264-99C1-29C3204AE768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACD3182-2F5C-46AC-8F3D-9BEE9C04E06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="-120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="5100" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>data</t>
   </si>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelCfg</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -97,10 +93,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>关卡1-2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -126,14 +118,6 @@
   </si>
   <si>
     <t>Storymode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡1-3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡1-4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -637,7 +621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -673,13 +657,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -703,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -724,13 +708,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -751,13 +735,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -765,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -774,71 +758,33 @@
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9" t="b">
-        <v>0</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>4</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
